--- a/build/list.xlsx
+++ b/build/list.xlsx
@@ -16,65 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>testa</t>
+    <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>testb</t>
+    <t>李四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>testd</t>
+    <t>王二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>teste</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testp</t>
+    <t>刘五</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -447,61 +403,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
